--- a/문서모음/테이블명세(0804)_dll포함.xlsx
+++ b/문서모음/테이블명세(0804)_dll포함.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study_project\git\TeamProject\문서모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymy\TeamProject\문서모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="465">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1857,6 +1857,18 @@
   </si>
   <si>
     <t>승인상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr_road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로명주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3219,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -5619,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5743,7 +5755,7 @@
         <v>213</v>
       </c>
       <c r="K7" s="16" t="str">
-        <f t="shared" ref="K7:K18" si="0">CONCATENATE(,B7," ", D7,E7, " ", F7, " ", G7," ", H7, ",")</f>
+        <f t="shared" ref="K7:K19" si="0">CONCATENATE(,B7," ", D7,E7, " ", F7, " ", G7," ", H7, ",")</f>
         <v>user_no int not null primary key auto_increment,</v>
       </c>
     </row>
@@ -5991,24 +6003,26 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>325</v>
+        <v>462</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>324</v>
+        <v>463</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="K17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>addr_detail varchar(200)   ,</v>
+        <v>addr_road varchar(200) not null  ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -6016,28 +6030,24 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>380</v>
-      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="K18" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>use_yn varchar(1)   default 'Y',</v>
+        <v>addr_detail varchar(200)   ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -6045,209 +6055,213 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>use_yn varchar(1)   default 'Y',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="K19" s="16" t="str">
-        <f>CONCATENATE(,B19," ", D19,E19, " ", F19, " ", G19," ", H19, L19)</f>
+      <c r="I20" s="2"/>
+      <c r="K20" s="16" t="str">
+        <f>CONCATENATE(,B20," ", D20,E20, " ", F20, " ", G20," ", H20, L20)</f>
         <v>user_dt datetime   default now()  );</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B23" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F23" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G23" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H23" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I23" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="15" t="str">
-        <f>CONCATENATE(J20,B20,"(")</f>
+      <c r="J23" s="17"/>
+      <c r="K23" s="15" t="str">
+        <f>CONCATENATE(J21,B21,"(")</f>
         <v>create table addr_manage(</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K23" s="16" t="str">
-        <f t="shared" ref="K23:K31" si="1">CONCATENATE(,B23," ", D23,E23, " ", F23, " ", G23," ", H23, ",")</f>
-        <v>addr_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>241</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="I24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="16" t="str">
+        <f t="shared" ref="K24:K32" si="1">CONCATENATE(,B24," ", D24,E24, " ", F24, " ", G24," ", H24, ",")</f>
+        <v>addr_no int not null primary key auto_increment,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K25" s="16" t="str">
         <f t="shared" si="1"/>
         <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="K25" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>addr_nm varchar(50) not null  ,</v>
-      </c>
-    </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="K26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>addr_gb varchar(30)   ,</v>
+        <v>addr_nm varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6255,18 +6269,18 @@
       <c r="I27" s="2"/>
       <c r="K27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>addr_nik varchar(20)   ,</v>
+        <v>addr_gb varchar(30)   ,</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>204</v>
@@ -6274,32 +6288,30 @@
       <c r="E28" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="K28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>addr_tel varchar(20) not null  ,</v>
+        <v>addr_nik varchar(20)   ,</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>199</v>
@@ -6309,24 +6321,24 @@
       <c r="I29" s="2"/>
       <c r="K29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>zipcode varchar(10) not null  ,</v>
+        <v>addr_tel varchar(20) not null  ,</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>199</v>
@@ -6336,24 +6348,24 @@
       <c r="I30" s="2"/>
       <c r="K30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>addr varchar(100) not null  ,</v>
+        <v>zipcode varchar(10) not null  ,</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>199</v>
@@ -6363,128 +6375,126 @@
       <c r="I31" s="2"/>
       <c r="K31" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>addr_detail varchar(200) not null  ,</v>
-      </c>
-      <c r="L31" t="s">
-        <v>284</v>
+        <v>addr varchar(100) not null  ,</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="K32" s="16" t="str">
-        <f>CONCATENATE(,B32," ", D31,E31, " ", F31, " ", G31," ", H31, L31)</f>
+        <f t="shared" si="1"/>
+        <v>addr_detail varchar(200) not null  ,</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="K33" s="16" t="str">
+        <f>CONCATENATE(,B33," ", D32,E32, " ", F32, " ", G32," ", H32, L32)</f>
         <v>addr_dt varchar(200) not null    );</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B34" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J34" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B36" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E36" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F36" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G36" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H36" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I36" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="15" t="str">
-        <f>CONCATENATE(J33,B33,"(")</f>
+      <c r="J36" s="17"/>
+      <c r="K36" s="15" t="str">
+        <f>CONCATENATE(J34,B34,"(")</f>
         <v>create table order_master(</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="16" t="str">
-        <f t="shared" ref="K36:K42" si="2">CONCATENATE(,B36," ", D36,E36, " ", F36, " ", G36," ", H36, ",")</f>
-        <v>order_no varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>245</v>
+        <v>392</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>204</v>
@@ -6501,285 +6511,285 @@
         <v>42</v>
       </c>
       <c r="K37" s="16" t="str">
+        <f t="shared" ref="K37:K43" si="2">CONCATENATE(,B37," ", D37,E37, " ", F37, " ", G37," ", H37, ",")</f>
+        <v>order_no varchar(30) not null  ,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="16" t="str">
         <f t="shared" si="2"/>
         <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="2" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="16" t="str">
+      <c r="K39" s="16" t="str">
         <f t="shared" si="2"/>
         <v>od_seq int not null  default 1,</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="K39" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>tot_qty int   ,</v>
-      </c>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="K40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>order_dt datetime not null  default now(),</v>
+        <v>tot_qty int   ,</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="H41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="2"/>
       <c r="K41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>addr_no int not null  ,</v>
+        <v>order_dt datetime not null  default now(),</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>175</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="13"/>
       <c r="F42" s="2" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="K42" s="16" t="str">
         <f t="shared" si="2"/>
+        <v>addr_no int not null  ,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="K43" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>order_sts varchar(30) not null  ,</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="K43" s="16" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="K44" s="16" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J45" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B47" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D47" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E47" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F47" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G47" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H47" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I47" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="15" t="str">
-        <f>CONCATENATE(J44,B44,"(")</f>
+      <c r="J47" s="17"/>
+      <c r="K47" s="15" t="str">
+        <f>CONCATENATE(J45,B45,"(")</f>
         <v>create table order_detail(</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K47" s="16" t="str">
-        <f t="shared" ref="K47:K55" si="3">CONCATENATE(,B47," ", D47,E47, " ", F47, " ", G47," ", H47, ",")</f>
-        <v>od_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>241</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E48" s="13"/>
       <c r="F48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="I48" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K48" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>user_id varchar(30) not null  ,</v>
+        <f t="shared" ref="K48:K56" si="3">CONCATENATE(,B48," ", D48,E48, " ", F48, " ", G48," ", H48, ",")</f>
+        <v>od_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>199</v>
@@ -6791,18 +6801,18 @@
       </c>
       <c r="K49" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>prod_id varchar(50) not null  ,</v>
+        <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>204</v>
@@ -6820,76 +6830,76 @@
       </c>
       <c r="K50" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>order_no varchar(50) not null  ,</v>
+        <v>prod_id varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E51" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
         <v>210</v>
       </c>
       <c r="K51" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>od_seq int not null  default 1,</v>
+        <v>order_no varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E52" s="13"/>
       <c r="F52" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="I52" s="2" t="s">
         <v>210</v>
       </c>
       <c r="K52" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>addr_no varchar(50) not null  ,</v>
+        <v>od_seq int not null  default 1,</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>204</v>
@@ -6902,73 +6912,77 @@
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="K53" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>point varchar(50) not null  ,</v>
+        <v>addr_no varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="K54" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>buy_dt datetime not null  default now(),</v>
+        <v>point varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="K55" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>payback_yn varchar(1)   ,</v>
+        <v>buy_dt datetime not null  default now(),</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>204</v>
@@ -6981,141 +6995,137 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="K56" s="16" t="str">
-        <f>CONCATENATE(,B56," ", D56,E56, " ", F56, " ", G56," ", H56, L56)</f>
+        <f t="shared" si="3"/>
+        <v>payback_yn varchar(1)   ,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="K57" s="16" t="str">
+        <f>CONCATENATE(,B57," ", D57,E57, " ", F57, " ", G57," ", H57, L57)</f>
         <v>cs_yn varchar(1)     );</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L57" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J58" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B60" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C60" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D60" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E60" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F60" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G60" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H60" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I60" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="15" t="str">
-        <f>CONCATENATE(J57,B57,"(")</f>
+      <c r="J60" s="17"/>
+      <c r="K60" s="15" t="str">
+        <f>CONCATENATE(J58,B58,"(")</f>
         <v>create table cart(</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K60" s="16" t="str">
-        <f t="shared" ref="K60:K65" si="4">CONCATENATE(,B60," ", D60,E60, " ", F60, " ", G60," ", H60, ",")</f>
-        <v>cart_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>241</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E61" s="13"/>
       <c r="F61" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="I61" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K61" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>user_id varchar(30) not null  ,</v>
+        <f t="shared" ref="K61:K66" si="4">CONCATENATE(,B61," ", D61,E61, " ", F61, " ", G61," ", H61, ",")</f>
+        <v>cart_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>393</v>
+        <v>245</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>199</v>
@@ -7127,18 +7137,18 @@
       </c>
       <c r="K62" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>prod_no varchar(50) not null  ,</v>
+        <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>204</v>
@@ -7146,227 +7156,227 @@
       <c r="E63" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="K63" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>op_code varchar(50)   ,</v>
+        <v>prod_no varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="2" t="s">
-        <v>199</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="K64" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>qty int not null  default 1,</v>
+        <v>op_code varchar(50)   ,</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E65" s="13"/>
       <c r="F65" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="K65" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>buy_yn varchar(50) not null  ,</v>
+        <v>qty int not null  default 1,</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="F66" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="K66" s="16" t="str">
-        <f>CONCATENATE(,B66," ", D66,E66, " ", F66, " ", G66," ", H66,L66)</f>
+        <f t="shared" si="4"/>
+        <v>buy_yn varchar(50) not null  ,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="K67" s="16" t="str">
+        <f>CONCATENATE(,B67," ", D67,E67, " ", F67, " ", G67," ", H67,L67)</f>
         <v>cart_dt datetime not null  default now()  );</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L67" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J68" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B70" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C70" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D70" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E70" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F70" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G70" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H70" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I69" s="23" t="s">
+      <c r="I70" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J69" s="17"/>
-      <c r="K69" s="15" t="str">
-        <f>CONCATENATE(J67,B67,"(")</f>
+      <c r="J70" s="17"/>
+      <c r="K70" s="15" t="str">
+        <f>CONCATENATE(J68,B68,"(")</f>
         <v>create table user_wish(</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>1</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K70" s="16" t="str">
-        <f>CONCATENATE(,B70," ", D70,E70, " ", F70, " ", G70," ", H70, ",")</f>
-        <v>wish_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>241</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E71" s="13"/>
       <c r="F71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="I71" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K71" s="16" t="str">
         <f>CONCATENATE(,B71," ", D71,E71, " ", F71, " ", G71," ", H71, ",")</f>
-        <v>user_id varchar(30) not null  ,</v>
+        <v>wish_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>391</v>
+        <v>245</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>395</v>
+        <v>244</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>199</v>
@@ -7377,141 +7387,141 @@
         <v>210</v>
       </c>
       <c r="K72" s="16" t="str">
-        <f>CONCATENATE(,B72," ", D72,E72, " ", F72, " ", G72," ", H72,L72)</f>
+        <f>CONCATENATE(,B72," ", D72,E72, " ", F72, " ", G72," ", H72, ",")</f>
+        <v>user_id varchar(30) not null  ,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K73" s="16" t="str">
+        <f>CONCATENATE(,B73," ", D73,E73, " ", F73, " ", G73," ", H73,L73)</f>
         <v>prod_no varchar(50) not null  );</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L73" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J74" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C76" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D76" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E76" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F76" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G76" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H76" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I75" s="23" t="s">
+      <c r="I76" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="15" t="str">
-        <f>CONCATENATE(J73,B73,"(")</f>
+      <c r="J76" s="17"/>
+      <c r="K76" s="15" t="str">
+        <f>CONCATENATE(J74,B74,"(")</f>
         <v>create table cs_master(</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>1</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K76" s="16" t="str">
-        <f t="shared" ref="K76:K83" si="5">CONCATENATE(,B76," ", D76,E76, " ", F76, " ", G76," ", H76, ",")</f>
-        <v>cs_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>241</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E77" s="13"/>
       <c r="F77" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="I77" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K77" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>user_id varchar(30) not null  ,</v>
+        <f t="shared" ref="K77:K85" si="5">CONCATENATE(,B77," ", D77,E77, " ", F77, " ", G77," ", H77, ",")</f>
+        <v>cs_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>391</v>
+        <v>245</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>396</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>199</v>
@@ -7523,325 +7533,322 @@
       </c>
       <c r="K78" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>prod_no varchar(100) not null  ,</v>
+        <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="13"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>383</v>
+        <v>210</v>
       </c>
       <c r="K79" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>cs_code varchar(50) not null  ,</v>
+        <v>prod_no varchar(100) not null  ,</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="F80" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="K80" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>cs_dt datetime not null  default now(),</v>
+        <v>cs_code varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>407</v>
+        <v>261</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E81" s="13"/>
       <c r="F81" s="2" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="I81" s="13"/>
       <c r="K81" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>cs_ttl varchar(50) not null  ,</v>
+        <v>cs_dt datetime not null  default now(),</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>279</v>
+        <v>406</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="13"/>
       <c r="K82" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>cs_con varchar(500) not null  ,</v>
+        <v>cs_ttl varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>384</v>
-      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="13"/>
       <c r="K83" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>proc_sts varchar(1) not null  default '1',</v>
+        <v>cs_con varchar(500) not null  ,</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>278</v>
+        <v>408</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="K84" s="16" t="str">
-        <f>CONCATENATE(,B84," ", D84,E84, " ", F84, " ", G84," ", H84,L84)</f>
+      <c r="I84" s="13"/>
+      <c r="K84" s="16"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>9</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K85" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>proc_sts varchar(1) not null  default '1',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>10</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="K86" s="16" t="str">
+        <f>CONCATENATE(,B86," ", D86,E86, " ", F86, " ", G86," ", H86,L86)</f>
         <v>sts_dt datetime   );</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L86" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B87" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J87" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B89" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C89" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D89" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E89" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F89" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G87" s="23" t="s">
+      <c r="G89" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="H89" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="I89" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="15" t="str">
-        <f>CONCATENATE(J85,B85,"(")</f>
+      <c r="J89" s="17"/>
+      <c r="K89" s="15" t="str">
+        <f>CONCATENATE(J87,B87,"(")</f>
         <v>create table cs_reply(</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>1</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K88" s="16" t="str">
-        <f>CONCATENATE(,B88," ", D88,E88, " ", F88, " ", G88," ", H88, ",")</f>
-        <v>csre_no int not null primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>2</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K89" s="16" t="str">
-        <f>CONCATENATE(,B89," ", D89,E89, " ", F89, " ", G89," ", H89, ",")</f>
-        <v>cs_no varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>207</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E90" s="13"/>
       <c r="F90" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K90" s="16" t="str">
         <f>CONCATENATE(,B90," ", D90,E90, " ", F90, " ", G90," ", H90, ",")</f>
-        <v>csre_con varchar(500) not null  ,</v>
+        <v>csre_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>204</v>
@@ -7854,193 +7861,191 @@
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+      <c r="I91" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="K91" s="16" t="str">
         <f>CONCATENATE(,B91," ", D91,E91, " ", F91, " ", G91," ", H91, ",")</f>
-        <v>proc_id varchar(30) not null  ,</v>
+        <v>cs_no varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="F92" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="K92" s="16" t="str">
-        <f>CONCATENATE(,B92," ", D92,E92, " ", F92, " ", G92," ", H92,L92)</f>
+        <f>CONCATENATE(,B92," ", D92,E92, " ", F92, " ", G92," ", H92, ",")</f>
+        <v>csre_con varchar(500) not null  ,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="K93" s="16" t="str">
+        <f>CONCATENATE(,B93," ", D93,E93, " ", F93, " ", G93," ", H93, ",")</f>
+        <v>proc_id varchar(30) not null  ,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="K94" s="16" t="str">
+        <f>CONCATENATE(,B94," ", D94,E94, " ", F94, " ", G94," ", H94,L94)</f>
         <v>proc_dt datetime not null  default now());</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L94" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J95" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="23" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B97" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C97" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D97" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="E97" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F95" s="23" t="s">
+      <c r="F97" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G97" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H97" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I95" s="23" t="s">
+      <c r="I97" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J95" s="17"/>
-      <c r="K95" s="15" t="str">
-        <f>CONCATENATE(J93,B93,"(")</f>
+      <c r="J97" s="17"/>
+      <c r="K97" s="15" t="str">
+        <f>CONCATENATE(J95,B95,"(")</f>
         <v>create table qna_master(</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>1</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K96" s="16" t="str">
-        <f>CONCATENATE(,B96," ", D96,E96, " ", F96, " ", G96," ", H96, ",")</f>
-        <v>qna_no int not null primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>2</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K97" s="16" t="str">
-        <f>CONCATENATE(,B97," ", D97,E97, " ", F97, " ", G97," ", H97, ",")</f>
-        <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>393</v>
+        <v>251</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>267</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E98" s="13"/>
       <c r="F98" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="I98" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K98" s="16" t="str">
         <f>CONCATENATE(,B98," ", D98,E98, " ", F98, " ", G98," ", H98, ",")</f>
-        <v>prod_no varchar(100) not null  ,</v>
+        <v>qna_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>204</v>
@@ -8054,136 +8059,140 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="K99" s="16" t="str">
-        <f>CONCATENATE(,B99," ", D99,E99, " ", F99, " ", G99," ", H99,L99,",")</f>
-        <v>qna_code varchar(30) not null  ,</v>
+        <f>CONCATENATE(,B99," ", D99,E99, " ", F99, " ", G99," ", H99, ",")</f>
+        <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>263</v>
+        <v>397</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
+      <c r="I100" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="K100" s="16" t="str">
-        <f>CONCATENATE(,B100," ", D100,E100, " ", F100, " ", G100," ", H100,L100,",")</f>
-        <v>qna_pw varchar(200) not null  ,</v>
+        <f>CONCATENATE(,B100," ", D100,E100, " ", F100, " ", G100," ", H100, ",")</f>
+        <v>prod_no varchar(100) not null  ,</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E101" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>241</v>
+      </c>
       <c r="F101" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="K101" s="16" t="str">
-        <f>CONCATENATE(,B101," ", D101,E101, " ", F101, " ", G101," ", H101, ",")</f>
-        <v>qna_dt datetime not null  default now(),</v>
+        <f>CONCATENATE(,B101," ", D101,E101, " ", F101, " ", G101," ", H101,L101,",")</f>
+        <v>qna_code varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>405</v>
+        <v>178</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="K102" s="16" t="str">
-        <f>CONCATENATE(,B102," ", D102,E102, " ", F102, " ", G102," ", H102, ",")</f>
-        <v>qna_ttl varchar(100) not null  ,</v>
+        <f>CONCATENATE(,B102," ", D102,E102, " ", F102, " ", G102," ", H102,L102,",")</f>
+        <v>qna_pw varchar(200) not null  ,</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>207</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E103" s="13"/>
       <c r="F103" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="I103" s="2"/>
       <c r="K103" s="16" t="str">
         <f>CONCATENATE(,B103," ", D103,E103, " ", F103, " ", G103," ", H103, ",")</f>
-        <v>qna_con varchar(500) not null  ,</v>
+        <v>qna_dt datetime not null  default now(),</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>25</v>
@@ -8193,219 +8202,217 @@
       <c r="I104" s="2"/>
       <c r="K104" s="16" t="str">
         <f>CONCATENATE(,B104," ", D104,E104, " ", F104, " ", G104," ", H104, ",")</f>
-        <v>proc_id varchar(55) not null  ,</v>
+        <v>qna_ttl varchar(100) not null  ,</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>411</v>
+        <v>207</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="G105" s="2"/>
-      <c r="H105" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>384</v>
-      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
       <c r="K105" s="16" t="str">
         <f>CONCATENATE(,B105," ", D105,E105, " ", F105, " ", G105," ", H105, ",")</f>
-        <v>proc_sts varchar(50) not null  default '1',</v>
-      </c>
-      <c r="L105" t="s">
-        <v>176</v>
+        <v>qna_con varchar(500) not null  ,</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>408</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>201</v>
+        <v>409</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="K106" s="16" t="str">
-        <f>CONCATENATE(,B106," ", D106,E106, " ", F106, " ", G106," ", H106,L106)</f>
+        <f>CONCATENATE(,B106," ", D106,E106, " ", F106, " ", G106," ", H106, ",")</f>
+        <v>proc_id varchar(55) not null  ,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>10</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K107" s="16" t="str">
+        <f>CONCATENATE(,B107," ", D107,E107, " ", F107, " ", G107," ", H107, ",")</f>
+        <v>proc_sts varchar(50) not null  default '1',</v>
+      </c>
+      <c r="L107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>11</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="K108" s="16" t="str">
+        <f>CONCATENATE(,B108," ", D108,E108, " ", F108, " ", G108," ", H108,L108)</f>
         <v>proc_dt datetime   );</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L108" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="J107" t="s">
+      <c r="C109" s="33"/>
+      <c r="J109" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="23" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B111" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C111" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D111" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E109" s="24" t="s">
+      <c r="E111" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F109" s="23" t="s">
+      <c r="F111" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="H111" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I109" s="23" t="s">
+      <c r="I111" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J109" s="17"/>
-      <c r="K109" t="str">
-        <f>CONCATENATE(J107,B107,"(")</f>
+      <c r="J111" s="17"/>
+      <c r="K111" t="str">
+        <f>CONCATENATE(J109,B109,"(")</f>
         <v>create table qna_reply(</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>1</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K110" s="12" t="str">
-        <f>CONCATENATE(,B110," ", D110,E110, " ", F110, " ", G110," ", H110, ",")</f>
-        <v>qr_no int not null primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>2</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K111" s="12" t="str">
-        <f>CONCATENATE(,B111," ", D111,E111, " ", F111, " ", G111," ", H111, ",")</f>
-        <v>qna_no varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>207</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E112" s="13"/>
       <c r="F112" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K112" s="12" t="str">
         <f>CONCATENATE(,B112," ", D112,E112, " ", F112, " ", G112," ", H112, ",")</f>
-        <v>qr_con varchar(500) not null  ,</v>
+        <v>qr_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>4</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>206</v>
+        <v>2</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>204</v>
@@ -8418,440 +8425,440 @@
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
+      <c r="I113" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="K113" s="12" t="str">
         <f>CONCATENATE(,B113," ", D113,E113, " ", F113, " ", G113," ", H113, ",")</f>
-        <v>proc_id varchar(30) not null  ,</v>
+        <v>qna_no varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E114" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="F114" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G114" s="2"/>
-      <c r="H114" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="K114" s="12" t="str">
-        <f>CONCATENATE(,B114," ", D114,E114, " ", F114, " ", G114," ", H114,L114)</f>
+        <f>CONCATENATE(,B114," ", D114,E114, " ", F114, " ", G114," ", H114, ",")</f>
+        <v>qr_con varchar(500) not null  ,</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="K115" s="12" t="str">
+        <f>CONCATENATE(,B115," ", D115,E115, " ", F115, " ", G115," ", H115, ",")</f>
+        <v>proc_id varchar(30) not null  ,</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E116" s="13"/>
+      <c r="F116" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="K116" s="12" t="str">
+        <f>CONCATENATE(,B116," ", D116,E116, " ", F116, " ", G116," ", H116,L116)</f>
         <v>proc_dt datetime not null  default now());</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L116" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J117" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="23" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B119" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C119" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D119" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E117" s="24" t="s">
+      <c r="E119" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F117" s="23" t="s">
+      <c r="F119" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="G119" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H119" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I117" s="23" t="s">
+      <c r="I119" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J117" s="17"/>
-      <c r="K117" t="str">
-        <f>CONCATENATE(J115,B115,"(")</f>
+      <c r="J119" s="17"/>
+      <c r="K119" t="str">
+        <f>CONCATENATE(J117,B117,"(")</f>
         <v>create table rv_master(</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
         <v>1</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="2" t="s">
+      <c r="E120" s="13"/>
+      <c r="F120" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K118" s="12" t="str">
-        <f t="shared" ref="K118:K123" si="6">CONCATENATE(,B118," ", D118,E118, " ", F118, " ", G118," ", H118, ",")</f>
+      <c r="K120" s="12" t="str">
+        <f t="shared" ref="K120:K125" si="6">CONCATENATE(,B120," ", D120,E120, " ", F120, " ", G120," ", H120, ",")</f>
         <v>rv_no int not null primary key auto_increment,</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>2</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="E121" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2" t="s">
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K119" s="12" t="str">
+      <c r="K121" s="12" t="str">
         <f t="shared" si="6"/>
         <v>user_id varchar(30) not null  ,</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
         <v>3</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="E122" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2" t="s">
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K120" s="12" t="str">
+      <c r="K122" s="12" t="str">
         <f t="shared" si="6"/>
         <v>prod_no varchar(30) not null  ,</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>4</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E121" s="13"/>
-      <c r="F121" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="K121" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>rv_star int not null  ,</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>5</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="K122" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>rv_con varchar(500) not null  ,</v>
-      </c>
-    </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="E123" s="13"/>
+      <c r="F123" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="K123" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rv_img varchar(500)   ,</v>
+        <v>rv_star int not null  ,</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E124" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="F124" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="K124" s="12" t="str">
-        <f>CONCATENATE(,B124," ", D124,E124, " ", F124, " ", G124," ", H124,L124)</f>
+        <f t="shared" si="6"/>
+        <v>rv_con varchar(500) not null  ,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>6</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="K125" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>rv_img varchar(500)   ,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>7</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="K126" s="12" t="str">
+        <f>CONCATENATE(,B126," ", D126,E126, " ", F126, " ", G126," ", H126,L126)</f>
         <v>review_dt datetime not null  default now());</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L126" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J127" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="23" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D129" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E127" s="24" t="s">
+      <c r="E129" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F129" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="G129" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H129" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I127" s="23" t="s">
+      <c r="I129" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="J127" s="17"/>
-      <c r="K127" t="str">
-        <f>CONCATENATE(J125,B125,"(")</f>
+      <c r="J129" s="17"/>
+      <c r="K129" t="str">
+        <f>CONCATENATE(J127,B127,"(")</f>
         <v>create table rv_reply(</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>1</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K128" s="12" t="str">
-        <f>CONCATENATE(,B128," ", D128,E128, " ", F128, " ", G128," ", H128, ",")</f>
-        <v>rr_no int not null primary key auto_increment,</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>2</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K129" s="12" t="str">
-        <f>CONCATENATE(,B129," ", D129,E129, " ", F129, " ", G129," ", H129, ",")</f>
-        <v>rv_no varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>207</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E130" s="13"/>
       <c r="F130" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
+      <c r="G130" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K130" s="12" t="str">
         <f>CONCATENATE(,B130," ", D130,E130, " ", F130, " ", G130," ", H130, ",")</f>
-        <v>rr_con varchar(500) not null  ,</v>
+        <v>rr_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>204</v>
@@ -8864,39 +8871,95 @@
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
+      <c r="I131" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="K131" s="12" t="str">
         <f>CONCATENATE(,B131," ", D131,E131, " ", F131, " ", G131," ", H131, ",")</f>
-        <v>proc_id varchar(50) not null  ,</v>
+        <v>rv_no varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E132" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="F132" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="K132" s="12" t="str">
-        <f>CONCATENATE(,B132," ", D132,E132, " ", F132, " ", G132," ", H132,L132)</f>
+        <f>CONCATENATE(,B132," ", D132,E132, " ", F132, " ", G132," ", H132, ",")</f>
+        <v>rr_con varchar(500) not null  ,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="K133" s="12" t="str">
+        <f>CONCATENATE(,B133," ", D133,E133, " ", F133, " ", G133," ", H133, ",")</f>
+        <v>proc_id varchar(50) not null  ,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E134" s="13"/>
+      <c r="F134" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="K134" s="12" t="str">
+        <f>CONCATENATE(,B134," ", D134,E134, " ", F134, " ", G134," ", H134,L134)</f>
         <v>proc_dt datetime not null  default now());</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L134" t="s">
         <v>197</v>
       </c>
     </row>

--- a/문서모음/테이블명세(0804)_dll포함.xlsx
+++ b/문서모음/테이블명세(0804)_dll포함.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymy\TeamProject\문서모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study_project\git\TeamProject\문서모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="466">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,14 +994,6 @@
   </si>
   <si>
     <t>(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1869,6 +1861,18 @@
   </si>
   <si>
     <t>(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PK, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2658,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>193</v>
@@ -2672,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>194</v>
@@ -2686,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>196</v>
@@ -2700,10 +2704,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2714,10 +2718,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2728,10 +2732,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2742,10 +2746,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2770,10 +2774,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2784,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2798,10 +2802,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2812,10 +2816,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2942,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -2958,7 +2962,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
@@ -3039,7 +3043,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -3095,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
@@ -3495,7 +3499,7 @@
         <v>114</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3858,7 +3862,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -3912,7 +3916,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -3939,7 +3943,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
@@ -4042,7 +4046,7 @@
         <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -4234,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>24</v>
@@ -4259,10 +4263,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>28</v>
@@ -4284,16 +4288,16 @@
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4490,7 +4494,7 @@
         <v>160</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>44</v>
@@ -4689,7 +4693,7 @@
         <v>114</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K60" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4810,10 +4814,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>44</v>
@@ -4844,7 +4848,7 @@
         <v>160</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>81</v>
@@ -4871,7 +4875,7 @@
         <v>161</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>28</v>
@@ -4922,10 +4926,10 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>24</v>
@@ -4947,10 +4951,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>24</v>
@@ -4972,10 +4976,10 @@
         <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>24</v>
@@ -5233,7 +5237,7 @@
         <v>114</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K82" s="16" t="str">
         <f t="shared" si="4"/>
@@ -5357,7 +5361,7 @@
         <v>106</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J87" t="s">
         <v>172</v>
@@ -5373,31 +5377,31 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="D89" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="E89" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="F89" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="G89" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="H89" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="I89" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="I89" s="23" t="s">
-        <v>424</v>
       </c>
       <c r="K89" s="15" t="str">
         <f>CONCATENATE(J87,B87,"(")</f>
@@ -5409,26 +5413,26 @@
         <v>1</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="K90" s="16" t="str">
         <f>CONCATENATE(,B90," ", D90,E90, " ", F90, " ", G90," ", H90, ",")</f>
@@ -5440,22 +5444,22 @@
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K91" s="16" t="str">
         <f t="shared" ref="K91:K95" si="6">CONCATENATE(,B91," ", D91,E91, " ", F91, " ", G91," ", H91, ",")</f>
@@ -5467,19 +5471,19 @@
         <v>3</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -5494,16 +5498,16 @@
         <v>4</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -5519,16 +5523,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -5544,24 +5548,24 @@
         <v>6</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K95" s="16" t="str">
         <f t="shared" si="6"/>
@@ -5573,21 +5577,21 @@
         <v>7</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I96" s="2"/>
       <c r="K96" s="16" t="str">
@@ -5633,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5651,7 +5655,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -5664,14 +5668,14 @@
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="2"/>
@@ -5681,7 +5685,7 @@
         <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J4" t="s">
         <v>230</v>
@@ -5692,7 +5696,7 @@
         <v>229</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5733,10 +5737,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>216</v>
@@ -5764,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>204</v>
@@ -5779,7 +5783,7 @@
         <v>199</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5793,16 +5797,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>199</v>
@@ -5820,10 +5824,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>204</v>
@@ -5847,10 +5851,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>204</v>
@@ -5862,7 +5866,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5874,10 +5878,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>204</v>
@@ -5889,7 +5893,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5901,16 +5905,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>199</v>
@@ -5918,7 +5922,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5930,13 +5934,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="2"/>
@@ -5953,16 +5957,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5978,16 +5982,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6003,16 +6007,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>25</v>
@@ -6030,16 +6034,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6055,24 +6059,24 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K19" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6084,10 +6088,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>200</v>
@@ -6104,7 +6108,7 @@
         <v>user_dt datetime   default now()  );</v>
       </c>
       <c r="L20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -6112,7 +6116,7 @@
         <v>232</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J21" t="s">
         <v>230</v>
@@ -6123,7 +6127,7 @@
         <v>229</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -6165,10 +6169,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>216</v>
@@ -6196,10 +6200,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>204</v>
@@ -6225,10 +6229,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>204</v>
@@ -6252,10 +6256,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>204</v>
@@ -6277,16 +6281,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -6302,16 +6306,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>199</v>
@@ -6329,16 +6333,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>199</v>
@@ -6356,16 +6360,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>199</v>
@@ -6383,16 +6387,16 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>199</v>
@@ -6405,7 +6409,7 @@
         <v>addr_detail varchar(200) not null  ,</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6413,10 +6417,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>200</v>
@@ -6438,7 +6442,7 @@
         <v>232</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
         <v>230</v>
@@ -6449,7 +6453,7 @@
         <v>229</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6491,10 +6495,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>204</v>
@@ -6520,10 +6524,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>204</v>
@@ -6549,10 +6553,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>44</v>
@@ -6563,10 +6567,10 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>42</v>
+        <v>465</v>
       </c>
       <c r="K39" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6578,13 +6582,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="2"/>
@@ -6601,10 +6605,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>200</v>
@@ -6628,10 +6632,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>216</v>
@@ -6655,13 +6659,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>399</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>401</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>175</v>
@@ -6688,7 +6692,7 @@
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="K44" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6696,7 +6700,7 @@
         <v>232</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J45" t="s">
         <v>230</v>
@@ -6707,7 +6711,7 @@
         <v>229</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -6749,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>216</v>
@@ -6780,10 +6784,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>204</v>
@@ -6809,10 +6813,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>243</v>
+        <v>463</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>242</v>
+        <v>464</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>204</v>
@@ -6830,7 +6834,7 @@
       </c>
       <c r="K50" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>prod_id varchar(50) not null  ,</v>
+        <v>prod_no varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6838,10 +6842,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>204</v>
@@ -6867,13 +6871,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="2" t="s">
@@ -6881,7 +6885,7 @@
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>210</v>
@@ -6896,10 +6900,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>204</v>
@@ -6925,10 +6929,10 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>204</v>
@@ -6952,10 +6956,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>200</v>
@@ -6979,16 +6983,16 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -7004,16 +7008,16 @@
         <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -7024,7 +7028,7 @@
         <v>cs_yn varchar(1)     );</v>
       </c>
       <c r="L57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -7032,7 +7036,7 @@
         <v>232</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J58" t="s">
         <v>230</v>
@@ -7043,7 +7047,7 @@
         <v>229</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -7085,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>216</v>
@@ -7116,10 +7120,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>204</v>
@@ -7145,10 +7149,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>204</v>
@@ -7174,10 +7178,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>204</v>
@@ -7199,10 +7203,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>216</v>
@@ -7213,7 +7217,7 @@
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I65" s="2"/>
       <c r="K65" s="16" t="str">
@@ -7226,10 +7230,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>204</v>
@@ -7253,10 +7257,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>200</v>
@@ -7275,7 +7279,7 @@
         <v>cart_dt datetime not null  default now()  );</v>
       </c>
       <c r="L67" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -7283,7 +7287,7 @@
         <v>232</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J68" t="s">
         <v>230</v>
@@ -7336,10 +7340,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>216</v>
@@ -7367,10 +7371,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
@@ -7396,10 +7400,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>204</v>
@@ -7420,7 +7424,7 @@
         <v>prod_no varchar(50) not null  );</v>
       </c>
       <c r="L73" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -7428,7 +7432,7 @@
         <v>232</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J74" t="s">
         <v>230</v>
@@ -7439,7 +7443,7 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -7481,10 +7485,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>216</v>
@@ -7512,10 +7516,10 @@
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>204</v>
@@ -7541,16 +7545,16 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>199</v>
@@ -7570,10 +7574,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>204</v>
@@ -7587,7 +7591,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="13"/>
       <c r="I80" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K80" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7599,10 +7603,10 @@
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>200</v>
@@ -7626,10 +7630,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>24</v>
@@ -7653,7 +7657,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>237</v>
@@ -7680,16 +7684,16 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>25</v>
@@ -7704,26 +7708,26 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K85" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7735,10 +7739,10 @@
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>200</v>
@@ -7761,7 +7765,7 @@
         <v>232</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J87" t="s">
         <v>230</v>
@@ -7772,7 +7776,7 @@
         <v>229</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -7814,10 +7818,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>216</v>
@@ -7845,10 +7849,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>204</v>
@@ -7874,7 +7878,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>208</v>
@@ -7958,7 +7962,7 @@
         <v>232</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J95" t="s">
         <v>230</v>
@@ -7969,7 +7973,7 @@
         <v>229</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -8011,10 +8015,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>216</v>
@@ -8042,10 +8046,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>204</v>
@@ -8071,16 +8075,16 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>199</v>
@@ -8100,10 +8104,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>204</v>
@@ -8117,7 +8121,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K101" s="16" t="str">
         <f>CONCATENATE(,B101," ", D101,E101, " ", F101, " ", G101," ", H101,L101,",")</f>
@@ -8129,10 +8133,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>204</v>
@@ -8156,10 +8160,10 @@
         <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>200</v>
@@ -8183,16 +8187,16 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>25</v>
@@ -8210,7 +8214,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>237</v>
@@ -8237,16 +8241,16 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>25</v>
@@ -8264,26 +8268,26 @@
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K107" s="16" t="str">
         <f>CONCATENATE(,B107," ", D107,E107, " ", F107, " ", G107," ", H107, ",")</f>
@@ -8324,7 +8328,7 @@
         <v>232</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C109" s="33"/>
       <c r="J109" t="s">
@@ -8336,7 +8340,7 @@
         <v>229</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -8378,10 +8382,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>216</v>
@@ -8409,10 +8413,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>204</v>
@@ -8438,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>208</v>
@@ -8522,7 +8526,7 @@
         <v>232</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J117" t="s">
         <v>230</v>
@@ -8533,7 +8537,7 @@
         <v>229</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -8578,7 +8582,7 @@
         <v>212</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>216</v>
@@ -8606,10 +8610,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>204</v>
@@ -8635,10 +8639,10 @@
         <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>204</v>
